--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shark333\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protokoll" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Anpassung Datenmodell, Recherche Webtechnologien, Einpflegung des Datenmodells, Erstellen von Triggern etc. Aufsetzen einer Testumgebung</t>
+  </si>
+  <si>
+    <t>Webservice - erste Implementierungen</t>
   </si>
 </sst>
 </file>
@@ -331,14 +334,14 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -657,42 +660,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
-    <col min="2" max="11" width="39.77734375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2" max="11" width="39.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="19"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -725,7 +728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="73.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -744,7 +747,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -763,14 +766,14 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="73.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="13"/>
@@ -782,7 +785,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -801,7 +804,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" ht="73.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -818,7 +821,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -833,14 +836,16 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="73.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -850,12 +855,16 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -865,119 +874,119 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -1233,7 +1242,7 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shark333\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Protokoll" sheetId="1" r:id="rId1"/>
+    <sheet name="Protocol" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -103,10 +103,13 @@
     <t>zusätzliche Recherche responsive WPF, Finalisierung des Datenmodells, Detaillierte Erhebung der Funktionen jeder einzelnen Schiene</t>
   </si>
   <si>
-    <t>Anpassung Datenmodell, Recherche Webtechnologien, Einpflegung des Datenmodells, Erstellen von Triggern etc. Aufsetzen einer Testumgebung</t>
-  </si>
-  <si>
     <t>Webservice - erste Implementierungen</t>
+  </si>
+  <si>
+    <t>Erstellen von Triggern etc. Aufsetzen einer Testumgebung, Einpflegung des Datenmodells</t>
+  </si>
+  <si>
+    <t>Anpassung Datenmodell, Recherche Webtechnologien</t>
   </si>
 </sst>
 </file>
@@ -660,19 +663,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
-    <col min="2" max="11" width="39.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5703125" style="2"/>
+    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
+    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="19" t="s">
         <v>11</v>
@@ -695,7 +698,7 @@
       </c>
       <c r="K1" s="20"/>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -728,7 +731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -747,7 +750,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -766,7 +769,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -774,9 +777,11 @@
         <v>16</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -785,7 +790,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -793,9 +798,11 @@
         <v>1</v>
       </c>
       <c r="C6" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="9"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -804,7 +811,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -821,7 +828,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -836,7 +843,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -844,7 +851,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -855,7 +862,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -874,119 +881,119 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -1242,7 +1249,7 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5BHIFS\BSD\BSD_Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>Anpassung Datenmodell, Recherche Webtechnologien</t>
+  </si>
+  <si>
+    <t>API Keys Anfordern und einbaun, Erstellen des Android Designs</t>
+  </si>
+  <si>
+    <t>Fertigstellen der Android Designs, Erste Funktionalitäten (Wörter übersetzen)</t>
   </si>
 </sst>
 </file>
@@ -296,10 +302,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -337,15 +349,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -665,340 +668,350 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
-    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="19.7109375" style="4" customWidth="1"/>
+    <col min="2" max="11" width="39.7109375" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="19" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="11">
         <v>0.5</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="11">
         <v>0</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="C7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1249,7 +1262,7 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5BHIFS\BSD\BSD_Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Herbst\Desktop\5BHIFS\BSD\Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -100,9 +100,6 @@
     <t>26.01.2018 - 08.01.2018</t>
   </si>
   <si>
-    <t>zusätzliche Recherche responsive WPF, Finalisierung des Datenmodells, Detaillierte Erhebung der Funktionen jeder einzelnen Schiene</t>
-  </si>
-  <si>
     <t>Webservice - erste Implementierungen</t>
   </si>
   <si>
@@ -116,12 +113,18 @@
   </si>
   <si>
     <t>Fertigstellen der Android Designs, Erste Funktionalitäten (Wörter übersetzen)</t>
+  </si>
+  <si>
+    <t>Fertigstellung - Funktionsbeschreibung der einzelnen Komponenten; GUI-Mockups; Responsive WPF Recherche; Beginn Implementierung</t>
+  </si>
+  <si>
+    <t>Finalisierung des Datenmodells, Detaillierte Erhebung der Funktionen für C#-Anwendung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -663,22 +666,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="4" customWidth="1"/>
-    <col min="2" max="11" width="39.7109375" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="11.5703125" style="4"/>
+    <col min="1" max="1" width="19.6640625" style="4" customWidth="1"/>
+    <col min="2" max="11" width="39.6640625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>11</v>
@@ -701,7 +704,7 @@
       </c>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -734,7 +737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -742,9 +745,11 @@
         <v>15</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -753,7 +758,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -761,9 +766,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -772,7 +779,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -780,10 +787,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -793,7 +800,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
@@ -814,7 +821,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -822,10 +829,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -835,7 +842,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>3</v>
       </c>
@@ -856,7 +863,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
@@ -864,7 +871,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -875,7 +882,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
@@ -894,119 +901,119 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -1255,14 +1262,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Herbst\Desktop\5BHIFS\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,12 +310,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,6 +346,12 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -666,359 +666,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="4" customWidth="1"/>
-    <col min="2" max="11" width="39.6640625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="4"/>
+    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
+    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="11">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>0.8</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1262,7 +1262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shark333\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Finalisierung des Datenmodells, Detaillierte Erhebung der Funktionen für C#-Anwendung</t>
+  </si>
+  <si>
+    <t>Grundgerüst und -funktionalität für den Webservice</t>
   </si>
 </sst>
 </file>
@@ -305,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -351,6 +354,9 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -671,17 +677,17 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
-    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2" max="11" width="39.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="18" t="s">
         <v>11</v>
@@ -704,7 +710,7 @@
       </c>
       <c r="K1" s="19"/>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -737,7 +743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -758,7 +764,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -779,7 +785,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -800,7 +806,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -821,7 +827,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -842,7 +848,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -863,7 +869,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -873,7 +879,9 @@
       <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -882,7 +890,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -892,7 +900,9 @@
       <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9">
+        <v>0.1</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -901,119 +911,119 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -1269,7 +1279,7 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Herbst\Desktop\5BHIFS\BSD\Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,6 +310,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,12 +352,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -666,359 +666,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
-    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="19.6640625" style="4" customWidth="1"/>
+    <col min="2" max="11" width="39.6640625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="B5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="11">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C8" s="11">
         <v>0.8</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D8" s="11">
         <v>0</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1262,7 +1262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Herbst\Desktop\5BHIFS\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,12 +310,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,6 +346,12 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -666,359 +666,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="4" customWidth="1"/>
-    <col min="2" max="11" width="39.6640625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="4"/>
+    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
+    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>0.8</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>0.8</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1262,7 +1262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Herbst\Desktop\5BHIFS\BSD\Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,6 +310,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,12 +352,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -666,359 +666,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
-    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="19.6640625" style="4" customWidth="1"/>
+    <col min="2" max="11" width="39.6640625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="11">
         <v>0</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
         <v>0.8</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D8" s="11">
         <v>0</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1262,7 +1262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -119,13 +119,16 @@
   </si>
   <si>
     <t>Finalisierung des Datenmodells, Detaillierte Erhebung der Funktionen für C#-Anwendung</t>
+  </si>
+  <si>
+    <t>Grundgerüst und -funktionalität für den Webservice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +173,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -305,16 +315,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -352,6 +356,19 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -669,356 +686,360 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="4" customWidth="1"/>
-    <col min="2" max="11" width="39.6640625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="4"/>
+    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
+    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="11">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="D10" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1029,6 +1050,18 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1040,7 +1073,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="B4">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1052,19 +1085,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:E4">
+  <conditionalFormatting sqref="E4 C4">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:E6">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1076,7 +1109,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:E6">
+  <conditionalFormatting sqref="C8:E8">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1088,7 +1121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:E8">
+  <conditionalFormatting sqref="B10:E10">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1100,7 +1133,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:E10">
+  <conditionalFormatting sqref="F4:G4">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1112,7 +1145,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:G4">
+  <conditionalFormatting sqref="F6:G6">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1124,7 +1157,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G6">
+  <conditionalFormatting sqref="F8:G8">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1136,7 +1169,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:G8">
+  <conditionalFormatting sqref="F10:G10">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1148,7 +1181,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:G10">
+  <conditionalFormatting sqref="H4:I4">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1160,7 +1193,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:I4">
+  <conditionalFormatting sqref="H6:I6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1172,7 +1205,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:I6">
+  <conditionalFormatting sqref="H8:I8">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1184,7 +1217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I8">
+  <conditionalFormatting sqref="H10:I10">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1196,7 +1229,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:I10">
+  <conditionalFormatting sqref="J4:K4">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1208,7 +1241,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:K4">
+  <conditionalFormatting sqref="J6:K6">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1220,7 +1253,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:K6">
+  <conditionalFormatting sqref="J8:K8">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1232,7 +1265,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:K8">
+  <conditionalFormatting sqref="J10:K10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1244,7 +1277,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:K10">
+  <conditionalFormatting sqref="D4">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -73,9 +73,6 @@
     <t>4.Sprint</t>
   </si>
   <si>
-    <t>Datenmodell, Ziele für 1.Sprint, Recherche Responsive WPF</t>
-  </si>
-  <si>
     <t>Datenmodell, Ziele für 1.Sprint, Dokumentation, Formulierung der Grundidee</t>
   </si>
   <si>
@@ -115,20 +112,23 @@
     <t>Fertigstellen der Android Designs, Erste Funktionalitäten (Wörter übersetzen)</t>
   </si>
   <si>
-    <t>Fertigstellung - Funktionsbeschreibung der einzelnen Komponenten; GUI-Mockups; Responsive WPF Recherche; Beginn Implementierung</t>
-  </si>
-  <si>
     <t>Finalisierung des Datenmodells, Detaillierte Erhebung der Funktionen für C#-Anwendung</t>
   </si>
   <si>
     <t>Grundgerüst und -funktionalität für den Webservice</t>
+  </si>
+  <si>
+    <t>Datenmodell, Ziele für 1.Sprint</t>
+  </si>
+  <si>
+    <t>Fertigstellung - Funktionsbeschreibung der einzelnen Komponenten; GUI-Mockups für Desktopanwendung; Responsive WPF Recherche, Ziele für 2. Sprint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,13 +173,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -315,10 +308,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -356,19 +355,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -686,360 +672,360 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
-    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="19.6640625" style="4" customWidth="1"/>
+    <col min="2" max="11" width="39.6640625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="22"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <v>0.1</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1085,7 +1071,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 C4">
+  <conditionalFormatting sqref="C4 E4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Herbst\Desktop\5BHIFS\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -313,12 +313,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,6 +349,12 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -669,363 +669,363 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="4" customWidth="1"/>
-    <col min="2" max="11" width="39.6640625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="4"/>
+    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
+    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>0.85</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>0.8</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>0.1</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1071,7 +1071,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 E4">
+  <conditionalFormatting sqref="E4 C4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1281,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5BHIFS\BSD\BSD_Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Fertigstellung - Funktionsbeschreibung der einzelnen Komponenten; GUI-Mockups für Desktopanwendung; Responsive WPF Recherche, Ziele für 2. Sprint</t>
+  </si>
+  <si>
+    <t>Erstellen eines Logos, Fertigstellung vorherigen Sprints</t>
   </si>
 </sst>
 </file>
@@ -308,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -354,6 +357,9 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -672,19 +678,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
-    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2" max="11" width="39.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="18" t="s">
         <v>11</v>
@@ -707,7 +713,7 @@
       </c>
       <c r="K1" s="19"/>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -740,7 +746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -761,7 +767,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -782,7 +788,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -803,7 +809,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -824,7 +830,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -837,7 +843,9 @@
       <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -845,7 +853,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -853,12 +861,14 @@
         <v>1</v>
       </c>
       <c r="C8" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9"/>
+        <v>0.95</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.5</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -866,7 +876,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -887,7 +897,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -908,119 +918,119 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -1071,7 +1081,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 C4">
+  <conditionalFormatting sqref="C4 E4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1288,7 +1298,7 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5BHIFS\BSD\BSD_Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Herbst\Desktop\5BHIFS\BSD\Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -121,16 +121,19 @@
     <t>Datenmodell, Ziele für 1.Sprint</t>
   </si>
   <si>
-    <t>Fertigstellung - Funktionsbeschreibung der einzelnen Komponenten; GUI-Mockups für Desktopanwendung; Responsive WPF Recherche, Ziele für 2. Sprint</t>
-  </si>
-  <si>
     <t>Erstellen eines Logos, Fertigstellung vorherigen Sprints</t>
+  </si>
+  <si>
+    <t>Fertigstellung GUI Mockups; Erstellung der WPF-GUI-Fenster; Start Implementierung</t>
+  </si>
+  <si>
+    <t>Fertigstellung - Funktionsbeschreibung der einzelnen Komponenten; Beginn Erstellung GUI-Mockups für Desktopanwendung; Ziele für 2. Sprint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,10 +314,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -352,15 +361,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -675,367 +675,371 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E17" sqref="E17"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
-    <col min="2" max="11" width="39.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5703125" style="2"/>
+    <col min="1" max="1" width="19.6640625" style="4" customWidth="1"/>
+    <col min="2" max="11" width="39.6640625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="19"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="D8" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.95</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <v>0.1</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1081,7 +1085,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 E4">
+  <conditionalFormatting sqref="E4 C4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1291,14 +1295,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Herbst\Desktop\5BHIFS\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Webservice - erste Implementierungen</t>
   </si>
   <si>
-    <t>Erstellen von Triggern etc. Aufsetzen einer Testumgebung, Einpflegung des Datenmodells</t>
-  </si>
-  <si>
     <t>Anpassung Datenmodell, Recherche Webtechnologien</t>
   </si>
   <si>
@@ -128,12 +125,18 @@
   </si>
   <si>
     <t>Fertigstellung - Funktionsbeschreibung der einzelnen Komponenten; Beginn Erstellung GUI-Mockups für Desktopanwendung; Ziele für 2. Sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aufsetzen einer Testumgebung, Einpflegung des Datenmodells</t>
+  </si>
+  <si>
+    <t>Erstellen von Triggern; SQL Queries und Anforderungen für den Webservice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -314,16 +317,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -361,6 +358,15 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -675,371 +681,375 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="4" customWidth="1"/>
-    <col min="2" max="11" width="39.6640625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="4"/>
+    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
+    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0.95</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>0.1</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1085,7 +1095,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 C4">
+  <conditionalFormatting sqref="C4 E4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1295,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Herbst\Desktop\5BHIFS\BSD\Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Erstellen eines Logos, Fertigstellung vorherigen Sprints</t>
   </si>
   <si>
-    <t>Fertigstellung GUI Mockups; Erstellung der WPF-GUI-Fenster; Start Implementierung</t>
-  </si>
-  <si>
     <t>Fertigstellung - Funktionsbeschreibung der einzelnen Komponenten; Beginn Erstellung GUI-Mockups für Desktopanwendung; Ziele für 2. Sprint</t>
   </si>
   <si>
@@ -131,12 +128,18 @@
   </si>
   <si>
     <t>Erstellen von Triggern; SQL Queries und Anforderungen für den Webservice</t>
+  </si>
+  <si>
+    <t>Fertigstellung GUI Mockups; Start Erstellung der GUI-Struktur in WPF</t>
+  </si>
+  <si>
+    <t>Fertigstellung GUI-Struktur in WPF; Start Implementierung der Business Logic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,10 +320,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -358,15 +367,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -681,375 +681,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
-    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="19.6640625" style="4" customWidth="1"/>
+    <col min="2" max="11" width="39.6640625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="E5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C6" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
+      <c r="E6" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="D8" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.95</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <v>0.1</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1095,7 +1099,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 E4">
+  <conditionalFormatting sqref="E4 C4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1305,7 +1309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Erstellen von Triggern; SQL Queries und Anforderungen für den Webservice</t>
+  </si>
+  <si>
+    <t>Datenbank Jobs anlegen, Trigger erweitern und Fnktionalität prüfen, Beginn mit Web Applikation (Mockups)</t>
   </si>
 </sst>
 </file>
@@ -358,14 +361,14 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -685,8 +688,8 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,26 +701,26 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -808,13 +811,15 @@
       <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -835,9 +840,11 @@
         <v>1</v>
       </c>
       <c r="E6" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="F6" s="9"/>
+        <v>0.95</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -1095,7 +1102,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 E4">
+  <conditionalFormatting sqref="E4 C4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Herbst\Desktop\5BHIFS\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -106,9 +106,6 @@
     <t>API Keys Anfordern und einbaun, Erstellen des Android Designs</t>
   </si>
   <si>
-    <t>Fertigstellen der Android Designs, Erste Funktionalitäten (Wörter übersetzen)</t>
-  </si>
-  <si>
     <t>Finalisierung des Datenmodells, Detaillierte Erhebung der Funktionen für C#-Anwendung</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>Datenmodell, Ziele für 1.Sprint</t>
   </si>
   <si>
-    <t>Erstellen eines Logos, Fertigstellung vorherigen Sprints</t>
-  </si>
-  <si>
     <t>Fertigstellung - Funktionsbeschreibung der einzelnen Komponenten; Beginn Erstellung GUI-Mockups für Desktopanwendung; Ziele für 2. Sprint</t>
   </si>
   <si>
@@ -134,12 +128,21 @@
   </si>
   <si>
     <t>Fertigstellung GUI-Struktur in WPF; Start Implementierung der Business Logic</t>
+  </si>
+  <si>
+    <t>Erste MockUps des Android Designs, Testen der verschiedenen APIs und Auswahl</t>
+  </si>
+  <si>
+    <t>Erstellen eines Logos, Implementierung des Logins, Vorbereiten für Integration des Webservices</t>
+  </si>
+  <si>
+    <t>Parsen des Json Strings um die benötigten Inforrmationen zu erhalten und diese auf der GUI anzeigen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -320,16 +323,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -367,6 +364,15 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -681,379 +687,383 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F6" sqref="F6"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="4" customWidth="1"/>
-    <col min="2" max="11" width="39.6640625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="4"/>
+    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2" max="11" width="39.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0.95</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>0.1</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1099,7 +1109,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 C4">
+  <conditionalFormatting sqref="C4 E4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1309,14 +1319,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
     <t>Erstellen eines Logos, Implementierung des Logins, Vorbereiten für Integration des Webservices</t>
   </si>
   <si>
-    <t>Parsen des Json Strings um die benötigten Inforrmationen zu erhalten und diese auf der GUI anzeigen</t>
+    <t>Parsen des Json Strings um die benötigten Informationen zu erhalten und diese auf der GUI anzeigen</t>
   </si>
 </sst>
 </file>
@@ -364,14 +364,14 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -691,41 +691,41 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
-    <col min="2" max="11" width="39.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5703125" style="2"/>
+    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
+    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="19"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -758,7 +758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -808,7 +808,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -831,7 +831,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -839,13 +839,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
       </c>
       <c r="E6" s="9">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -854,7 +854,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -864,13 +864,13 @@
       <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="6"/>
@@ -879,7 +879,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -904,7 +904,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -925,7 +925,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -946,119 +946,119 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -1109,7 +1109,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 E4">
+  <conditionalFormatting sqref="E4 C4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1326,7 +1326,7 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCHULE\5BHIFS\BSD\BSD_Project-master\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>Parsen des Json Strings um die benötigten Informationen zu erhalten und diese auf der GUI anzeigen</t>
+  </si>
+  <si>
+    <t>Login Webservice</t>
+  </si>
+  <si>
+    <t>Daten anzeigen Webservice</t>
   </si>
 </sst>
 </file>
@@ -690,19 +696,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
-    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2" max="11" width="39.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="19" t="s">
         <v>11</v>
@@ -725,7 +731,7 @@
       </c>
       <c r="K1" s="20"/>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -758,7 +764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -783,7 +789,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -808,7 +814,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -831,7 +837,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -854,7 +860,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -879,7 +885,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -904,7 +910,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -917,15 +923,19 @@
       <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -936,129 +946,133 @@
         <v>1</v>
       </c>
       <c r="D10" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.5</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -1109,7 +1123,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 C4">
+  <conditionalFormatting sqref="C4 E4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1326,7 +1340,7 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCHULE\5BHIFS\BSD\BSD_Project-master\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Herbst\Desktop\5BHIFS\BSD\Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Fertigstellung GUI Mockups; Start Erstellung der GUI-Struktur in WPF</t>
   </si>
   <si>
-    <t>Fertigstellung GUI-Struktur in WPF; Start Implementierung der Business Logic</t>
-  </si>
-  <si>
     <t>Erste MockUps des Android Designs, Testen der verschiedenen APIs und Auswahl</t>
   </si>
   <si>
@@ -143,12 +140,21 @@
   </si>
   <si>
     <t>Daten anzeigen Webservice</t>
+  </si>
+  <si>
+    <t>Implementierung Login GUI + Business Logic; Implementierung Dashboard GUI</t>
+  </si>
+  <si>
+    <t>Fertigstellen von Dashboard inkl. Menüstruktur und Busineslogic</t>
+  </si>
+  <si>
+    <t>Parsen JSON String</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -693,22 +699,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
-    <col min="2" max="11" width="39.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5703125" style="2"/>
+    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
+    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="19" t="s">
         <v>11</v>
@@ -731,7 +737,7 @@
       </c>
       <c r="K1" s="20"/>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -764,7 +770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -780,16 +786,18 @@
       <c r="E3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="6"/>
+      <c r="F3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -806,15 +814,17 @@
         <v>1</v>
       </c>
       <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
         <v>0.2</v>
       </c>
-      <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -837,7 +847,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -860,7 +870,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -871,21 +881,23 @@
         <v>25</v>
       </c>
       <c r="D7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -899,18 +911,20 @@
         <v>1</v>
       </c>
       <c r="E8" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F8" s="9">
         <v>0.5</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9">
+        <v>0.5</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -924,10 +938,10 @@
         <v>27</v>
       </c>
       <c r="E9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -935,7 +949,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -960,119 +974,119 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -1123,7 +1137,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 E4">
+  <conditionalFormatting sqref="E4 C4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1333,14 +1347,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Herbst\Desktop\5BHIFS\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -145,16 +145,22 @@
     <t>Implementierung Login GUI + Business Logic; Implementierung Dashboard GUI</t>
   </si>
   <si>
-    <t>Fertigstellen von Dashboard inkl. Menüstruktur und Busineslogic</t>
-  </si>
-  <si>
     <t>Parsen JSON String</t>
+  </si>
+  <si>
+    <t>Erstellen von Triggern und Procedures; Erstimplementierung der Webapplikation</t>
+  </si>
+  <si>
+    <t>Fertigstellen von Dashboard inkl. Menüstruktur und Businesslogic</t>
+  </si>
+  <si>
+    <t>Erstellen von Triggern,  Procedures und Jobs; Erstimplementierung der Webapplikation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,12 +705,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,7 +796,7 @@
         <v>38</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -837,11 +843,15 @@
       <c r="D5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -861,9 +871,11 @@
         <v>1</v>
       </c>
       <c r="E6" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="F6" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.7</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -890,7 +902,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1137,7 +1149,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 C4">
+  <conditionalFormatting sqref="C4 E4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1347,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Herbst\Desktop\5BHIFS\BSD\Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -151,16 +151,16 @@
     <t>Erstellen von Triggern und Procedures; Erstimplementierung der Webapplikation</t>
   </si>
   <si>
-    <t>Fertigstellen von Dashboard inkl. Menüstruktur und Businesslogic</t>
-  </si>
-  <si>
     <t>Erstellen von Triggern,  Procedures und Jobs; Erstimplementierung der Webapplikation</t>
+  </si>
+  <si>
+    <t>Recherche WPF: SideMenu; Responsive WPF; Implementierung Dashboard mit Sidemenu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -705,12 +705,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F5" sqref="F5"/>
+      <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,7 +796,7 @@
         <v>38</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -847,7 +847,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>40</v>
@@ -1149,7 +1149,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 E4">
+  <conditionalFormatting sqref="E4 C4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Herbst\Desktop\5BHIFS\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCHULE\5BHIFS\BSD\BSD_Project-master\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Login Webservice</t>
   </si>
   <si>
-    <t>Daten anzeigen Webservice</t>
-  </si>
-  <si>
     <t>Implementierung Login GUI + Business Logic; Implementierung Dashboard GUI</t>
   </si>
   <si>
@@ -155,12 +152,18 @@
   </si>
   <si>
     <t>Recherche WPF: SideMenu; Responsive WPF; Implementierung Dashboard mit Sidemenu</t>
+  </si>
+  <si>
+    <t>Userverwaltung über den Webservice</t>
+  </si>
+  <si>
+    <t>Words und Phrases - Webservice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -705,22 +708,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
-    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2" max="11" width="39.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="19" t="s">
         <v>11</v>
@@ -743,7 +746,7 @@
       </c>
       <c r="K1" s="20"/>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -776,7 +779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -793,17 +796,17 @@
         <v>32</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -830,7 +833,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -847,17 +850,17 @@
         <v>31</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -882,7 +885,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -902,14 +905,14 @@
         <v>35</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -936,7 +939,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -953,15 +956,17 @@
         <v>36</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -978,127 +983,129 @@
         <v>1</v>
       </c>
       <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
         <v>0.5</v>
       </c>
-      <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -1149,7 +1156,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 C4">
+  <conditionalFormatting sqref="C4 E4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1359,14 +1366,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -710,7 +710,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F5" sqref="F5"/>
+      <selection pane="topRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,9 +874,11 @@
         <v>1</v>
       </c>
       <c r="F6" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="G6" s="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Herbst\Desktop\5BHIFS\BSD\Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -82,21 +82,12 @@
     <t>Webservice Grundaufbau, Ziele für 1.Sprint</t>
   </si>
   <si>
-    <t>15.12.2017 - 28.12.2017</t>
-  </si>
-  <si>
-    <t>29.12.2017 - 11.01.2018</t>
-  </si>
-  <si>
     <t>5.Sprint</t>
   </si>
   <si>
     <t>12.01.2018 - 25.01.2018</t>
   </si>
   <si>
-    <t>26.01.2018 - 08.01.2018</t>
-  </si>
-  <si>
     <t>Webservice - erste Implementierungen</t>
   </si>
   <si>
@@ -151,16 +142,28 @@
     <t>Erstellen von Triggern und Procedures; Erstimplementierung der Webapplikation</t>
   </si>
   <si>
-    <t>Fertigstellen von Dashboard inkl. Menüstruktur und Businesslogic</t>
-  </si>
-  <si>
     <t>Erstellen von Triggern,  Procedures und Jobs; Erstimplementierung der Webapplikation</t>
+  </si>
+  <si>
+    <t>Recherche Responsive WPF</t>
+  </si>
+  <si>
+    <t>26.01.2018 - 08.02.2018</t>
+  </si>
+  <si>
+    <t>15.12.2017 - 11.01.2018</t>
+  </si>
+  <si>
+    <t>Lesen von XAML-Dokumentation bzgl. Containerstrukturen; gefehlt am 22.12.2018</t>
+  </si>
+  <si>
+    <t>Implementierung Dashboard + User</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -390,6 +393,39 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -705,12 +741,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F7" sqref="F7"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H5" sqref="H5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,7 +775,7 @@
       </c>
       <c r="I1" s="20"/>
       <c r="J1" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K1" s="20"/>
     </row>
@@ -763,17 +799,15 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>22</v>
+      <c r="K2" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -781,26 +815,30 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="F3" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -823,10 +861,12 @@
         <v>1</v>
       </c>
       <c r="G4" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="26">
+        <v>1</v>
+      </c>
+      <c r="I4" s="27"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
@@ -838,22 +878,22 @@
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
@@ -879,8 +919,8 @@
       <c r="G6" s="9">
         <v>0.2</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
@@ -892,22 +932,22 @@
         <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
@@ -933,8 +973,8 @@
       <c r="G8" s="9">
         <v>0.5</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
@@ -946,20 +986,20 @@
         <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
@@ -983,8 +1023,8 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
@@ -1108,7 +1148,16 @@
       <c r="E27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="14">
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -1151,7 +1200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 E4">
+  <conditionalFormatting sqref="E4 C4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1247,7 +1296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:I4">
+  <conditionalFormatting sqref="H4">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1259,7 +1308,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:I6">
+  <conditionalFormatting sqref="H6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1271,7 +1320,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I8">
+  <conditionalFormatting sqref="H8">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1283,7 +1332,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:I10">
+  <conditionalFormatting sqref="H10">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1361,7 +1410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -157,7 +157,7 @@
     <t>Lesen von XAML-Dokumentation bzgl. Containerstrukturen; gefehlt am 22.12.2018</t>
   </si>
   <si>
-    <t>Implementierung Dashboard + User</t>
+    <t>Implementierung aller GUIs</t>
   </si>
 </sst>
 </file>
@@ -388,44 +388,44 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -745,8 +745,8 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H5" sqref="H5:I5"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,26 +758,26 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="19" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="20"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -799,14 +799,14 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="25"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -832,10 +832,10 @@
       <c r="G3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="23"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="18" t="s">
         <v>43</v>
       </c>
@@ -863,11 +863,13 @@
       <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="26">
-        <v>1</v>
-      </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="9"/>
+      <c r="H4" s="22">
+        <v>1</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="9">
+        <v>0.3</v>
+      </c>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -919,8 +921,8 @@
       <c r="G6" s="9">
         <v>0.2</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
@@ -946,8 +948,8 @@
       <c r="G7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
@@ -973,8 +975,8 @@
       <c r="G8" s="9">
         <v>0.5</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
@@ -998,8 +1000,8 @@
         <v>34</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
@@ -1023,8 +1025,8 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
@@ -1149,6 +1151,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H10:I10"/>
@@ -1158,11 +1165,6 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8">
     <cfRule type="colorScale" priority="21">
@@ -1200,7 +1202,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 C4">
+  <conditionalFormatting sqref="C4 E4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Herbst\Desktop\5BHIFS\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCHULE\5BHIFS\BSD\BSD_Project-master\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -158,12 +158,21 @@
   </si>
   <si>
     <t>Implementierung aller GUIs</t>
+  </si>
+  <si>
+    <t>Datenbank-Struktur im Webservice nachbauen</t>
+  </si>
+  <si>
+    <t>Oxford-Dictionary in den Webservice einbinden</t>
+  </si>
+  <si>
+    <t>Oxford-Dictionary-Funktionalität implementieren</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,6 +400,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -419,12 +434,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -741,45 +750,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J5" sqref="J5"/>
+      <selection pane="topRight" activeCell="H5" sqref="H5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
-    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2" max="11" width="39.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="30" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="31"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -799,10 +808,10 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="27"/>
+      <c r="I2" s="29"/>
       <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
@@ -810,7 +819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -832,16 +841,16 @@
       <c r="G3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="18" t="s">
         <v>43</v>
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -863,16 +872,16 @@
       <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="22">
-        <v>1</v>
-      </c>
-      <c r="I4" s="23"/>
+      <c r="H4" s="24">
+        <v>1</v>
+      </c>
+      <c r="I4" s="25"/>
       <c r="J4" s="9">
         <v>0.3</v>
       </c>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -894,12 +903,12 @@
       <c r="G5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -921,12 +930,12 @@
       <c r="G6" s="9">
         <v>0.2</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -948,12 +957,12 @@
       <c r="G7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -975,12 +984,12 @@
       <c r="G8" s="9">
         <v>0.5</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -999,13 +1008,19 @@
       <c r="F9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="6"/>
+      <c r="G9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -1022,127 +1037,133 @@
         <v>1</v>
       </c>
       <c r="F10" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="24">
+        <v>1</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="9">
+        <v>0.2</v>
+      </c>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -1151,11 +1172,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H10:I10"/>
@@ -1165,6 +1181,11 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8">
     <cfRule type="colorScale" priority="21">
@@ -1202,7 +1223,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 E4">
+  <conditionalFormatting sqref="E4 C4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1412,14 +1433,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCHULE\5BHIFS\BSD\BSD_Project-master\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>Oxford-Dictionary-Funktionalität implementieren</t>
+  </si>
+  <si>
+    <t>Dokumentation der Datenbank, Überprüfung der Funktionalität</t>
+  </si>
+  <si>
+    <t>Mockups Web, Rechere bei ähnlichen Produkten (Lernmethoden)</t>
   </si>
 </sst>
 </file>
@@ -400,41 +406,41 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -754,41 +760,41 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H5" sqref="H5:I5"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
-    <col min="2" max="11" width="39.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5703125" style="2"/>
+    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
+    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="20" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="21"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="30"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -808,10 +814,10 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="29"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
@@ -819,7 +825,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -841,16 +847,16 @@
       <c r="G3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="18" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="31" t="s">
         <v>43</v>
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -872,16 +878,16 @@
       <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="24">
-        <v>1</v>
-      </c>
-      <c r="I4" s="25"/>
+      <c r="H4" s="22">
+        <v>1</v>
+      </c>
+      <c r="I4" s="23"/>
       <c r="J4" s="9">
         <v>0.3</v>
       </c>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -903,12 +909,16 @@
       <c r="G5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="13"/>
+      <c r="H5" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="J5" s="31" t="s">
+        <v>48</v>
+      </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -930,12 +940,16 @@
       <c r="G6" s="9">
         <v>0.2</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="9"/>
+      <c r="H6" s="22">
+        <v>1</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="9">
+        <v>0.2</v>
+      </c>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -957,12 +971,12 @@
       <c r="G7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="21"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -984,12 +998,12 @@
       <c r="G8" s="9">
         <v>0.5</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1011,16 +1025,16 @@
       <c r="G9" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="18" t="s">
+      <c r="I9" s="21"/>
+      <c r="J9" s="31" t="s">
         <v>46</v>
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -1042,128 +1056,128 @@
       <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="24">
-        <v>1</v>
-      </c>
-      <c r="I10" s="25"/>
+      <c r="H10" s="22">
+        <v>1</v>
+      </c>
+      <c r="I10" s="23"/>
       <c r="J10" s="9">
         <v>0.2</v>
       </c>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -1172,6 +1186,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H10:I10"/>
@@ -1181,11 +1200,6 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8">
     <cfRule type="colorScale" priority="21">
@@ -1223,7 +1237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 C4">
+  <conditionalFormatting sqref="C4 E4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1440,7 +1454,7 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Herbst\Desktop\5BHIFS\BSD\Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Lesen von XAML-Dokumentation bzgl. Containerstrukturen; gefehlt am 22.12.2018</t>
   </si>
   <si>
-    <t>Implementierung aller GUIs</t>
-  </si>
-  <si>
     <t>Datenbank-Struktur im Webservice nachbauen</t>
   </si>
   <si>
@@ -173,12 +170,18 @@
   </si>
   <si>
     <t>Mockups Web, Rechere bei ähnlichen Produkten (Lernmethoden)</t>
+  </si>
+  <si>
+    <t>Implementierung Core GUIs + Business Logic</t>
+  </si>
+  <si>
+    <t>Fertigstellung Business Logic für vorhandene GUIs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,6 +409,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -431,15 +443,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -756,12 +759,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J7" sqref="J7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,26 +776,26 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="29" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="30"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -814,10 +817,10 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="29"/>
       <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
@@ -847,14 +850,16 @@
       <c r="G3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="6"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
@@ -878,14 +883,16 @@
       <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="22">
-        <v>1</v>
-      </c>
-      <c r="I4" s="23"/>
+      <c r="H4" s="25">
+        <v>1</v>
+      </c>
+      <c r="I4" s="26"/>
       <c r="J4" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="K4" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
@@ -909,12 +916,12 @@
       <c r="G5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="31" t="s">
-        <v>48</v>
       </c>
       <c r="K5" s="13"/>
     </row>
@@ -940,10 +947,10 @@
       <c r="G6" s="9">
         <v>0.2</v>
       </c>
-      <c r="H6" s="22">
-        <v>1</v>
-      </c>
-      <c r="I6" s="23"/>
+      <c r="H6" s="25">
+        <v>1</v>
+      </c>
+      <c r="I6" s="26"/>
       <c r="J6" s="9">
         <v>0.2</v>
       </c>
@@ -971,8 +978,8 @@
       <c r="G7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
@@ -998,8 +1005,8 @@
       <c r="G8" s="9">
         <v>0.5</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
@@ -1023,14 +1030,14 @@
         <v>34</v>
       </c>
       <c r="G9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="I9" s="24"/>
+      <c r="J9" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="31" t="s">
-        <v>46</v>
       </c>
       <c r="K9" s="6"/>
     </row>
@@ -1056,10 +1063,10 @@
       <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="22">
-        <v>1</v>
-      </c>
-      <c r="I10" s="23"/>
+      <c r="H10" s="25">
+        <v>1</v>
+      </c>
+      <c r="I10" s="26"/>
       <c r="J10" s="9">
         <v>0.2</v>
       </c>
@@ -1186,11 +1193,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H10:I10"/>
@@ -1200,6 +1202,11 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8">
     <cfRule type="colorScale" priority="21">
@@ -1237,7 +1244,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 E4">
+  <conditionalFormatting sqref="E4 C4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1447,7 +1454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t>Fertigstellung Business Logic für vorhandene GUIs</t>
+  </si>
+  <si>
+    <t>umbauen der App auf Fragments, Login mit Webservice</t>
+  </si>
+  <si>
+    <t>Updaten der GUI sowie Layout, implementierung der Testsequenz</t>
+  </si>
+  <si>
+    <t>Funktionalität "Übersetzung" fertiggestellt in beide Richtungen</t>
   </si>
 </sst>
 </file>
@@ -362,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -412,38 +421,35 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -762,9 +768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K5" sqref="K5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,26 +782,26 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="22"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -817,10 +823,10 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="29"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
@@ -850,10 +856,10 @@
       <c r="G3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="27"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="20" t="s">
         <v>48</v>
       </c>
@@ -883,10 +889,10 @@
       <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="25">
-        <v>1</v>
-      </c>
-      <c r="I4" s="26"/>
+      <c r="H4" s="23">
+        <v>1</v>
+      </c>
+      <c r="I4" s="24"/>
       <c r="J4" s="9">
         <v>1</v>
       </c>
@@ -916,10 +922,10 @@
       <c r="G5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="20" t="s">
         <v>47</v>
       </c>
@@ -947,10 +953,10 @@
       <c r="G6" s="9">
         <v>0.2</v>
       </c>
-      <c r="H6" s="25">
-        <v>1</v>
-      </c>
-      <c r="I6" s="26"/>
+      <c r="H6" s="23">
+        <v>1</v>
+      </c>
+      <c r="I6" s="24"/>
       <c r="J6" s="9">
         <v>0.2</v>
       </c>
@@ -978,10 +984,16 @@
       <c r="G7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="H7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
@@ -1000,15 +1012,21 @@
         <v>1</v>
       </c>
       <c r="F8" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="23">
+        <v>1</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
@@ -1032,10 +1050,10 @@
       <c r="G9" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="24"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="20" t="s">
         <v>45</v>
       </c>
@@ -1063,10 +1081,10 @@
       <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="25">
-        <v>1</v>
-      </c>
-      <c r="I10" s="26"/>
+      <c r="H10" s="23">
+        <v>1</v>
+      </c>
+      <c r="I10" s="24"/>
       <c r="J10" s="9">
         <v>0.2</v>
       </c>
@@ -1193,6 +1211,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H10:I10"/>
@@ -1202,11 +1225,6 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8">
     <cfRule type="colorScale" priority="21">
@@ -1244,7 +1262,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 C4">
+  <conditionalFormatting sqref="C4 E4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Herbst\Desktop\5BHIFS\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shark333\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -185,12 +185,15 @@
   </si>
   <si>
     <t>Funktionalität "Übersetzung" fertiggestellt in beide Richtungen</t>
+  </si>
+  <si>
+    <t>Phrases-Words-Kompatibilität</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,6 +424,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -443,12 +452,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,45 +768,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J6" sqref="J6"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
-    <col min="2" max="11" width="39.6640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2" max="11" width="39.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="29" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -823,10 +826,10 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="27"/>
+      <c r="I2" s="29"/>
       <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
@@ -834,7 +837,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -856,10 +859,10 @@
       <c r="G3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="20" t="s">
         <v>48</v>
       </c>
@@ -867,7 +870,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -889,10 +892,10 @@
       <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="23">
-        <v>1</v>
-      </c>
-      <c r="I4" s="24"/>
+      <c r="H4" s="25">
+        <v>1</v>
+      </c>
+      <c r="I4" s="26"/>
       <c r="J4" s="9">
         <v>1</v>
       </c>
@@ -900,7 +903,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -922,16 +925,16 @@
       <c r="G5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="20" t="s">
         <v>47</v>
       </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -953,16 +956,16 @@
       <c r="G6" s="9">
         <v>0.2</v>
       </c>
-      <c r="H6" s="23">
-        <v>1</v>
-      </c>
-      <c r="I6" s="24"/>
+      <c r="H6" s="25">
+        <v>1</v>
+      </c>
+      <c r="I6" s="26"/>
       <c r="J6" s="9">
         <v>0.2</v>
       </c>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -984,10 +987,10 @@
       <c r="G7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="18" t="s">
         <v>51</v>
       </c>
@@ -995,7 +998,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1017,10 +1020,10 @@
       <c r="G8" s="9">
         <v>1</v>
       </c>
-      <c r="H8" s="23">
-        <v>1</v>
-      </c>
-      <c r="I8" s="24"/>
+      <c r="H8" s="25">
+        <v>1</v>
+      </c>
+      <c r="I8" s="26"/>
       <c r="J8" s="9">
         <v>1</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1050,16 +1053,18 @@
       <c r="G9" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="22"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K9" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -1081,128 +1086,130 @@
       <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="23">
-        <v>1</v>
-      </c>
-      <c r="I10" s="24"/>
+      <c r="H10" s="25">
+        <v>1</v>
+      </c>
+      <c r="I10" s="26"/>
       <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9">
         <v>0.2</v>
       </c>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -1211,11 +1218,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H10:I10"/>
@@ -1225,6 +1227,11 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8">
     <cfRule type="colorScale" priority="21">
@@ -1262,7 +1269,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 E4">
+  <conditionalFormatting sqref="E4 C4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1472,14 +1479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shark333\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0B06A0-C571-420A-99F1-A1AA2FE2A0F4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -188,6 +189,30 @@
   </si>
   <si>
     <t>Phrases-Words-Kompatibilität</t>
+  </si>
+  <si>
+    <t>6.Sprint</t>
+  </si>
+  <si>
+    <t>19.02.2018 - 01.03.2018</t>
+  </si>
+  <si>
+    <t>02.03.2018 - 15.03.2018</t>
+  </si>
+  <si>
+    <t>16.03.2018 - 05.04.2018</t>
+  </si>
+  <si>
+    <t>06.04.2018 - 16.04.2018</t>
+  </si>
+  <si>
+    <t>7.Sprint</t>
+  </si>
+  <si>
+    <t>Präsentationsvorbereitung</t>
+  </si>
+  <si>
+    <t>Zieldefinition für die Web Applikation bis zum Zielende</t>
   </si>
 </sst>
 </file>
@@ -248,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -369,12 +394,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -404,9 +440,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -424,35 +457,51 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -769,44 +818,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K11" sqref="K11"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
-    <col min="2" max="11" width="39.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5703125" style="2"/>
+    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
+    <col min="2" max="15" width="39.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="22"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="30"/>
+      <c r="L1" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="32"/>
+      <c r="N1" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="30"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -826,18 +883,30 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="29"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -853,24 +922,28 @@
       <c r="E3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="20" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="19"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="17"/>
+    </row>
+    <row r="4" spans="1:15" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -892,18 +965,22 @@
       <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="25">
-        <v>1</v>
-      </c>
-      <c r="I4" s="26"/>
+      <c r="H4" s="23">
+        <v>1</v>
+      </c>
+      <c r="I4" s="24"/>
       <c r="J4" s="9">
         <v>1</v>
       </c>
       <c r="K4" s="9">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="9"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -916,26 +993,34 @@
       <c r="D5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="20" t="s">
+      <c r="I5" s="28"/>
+      <c r="J5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="K5" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="35"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8">
@@ -956,16 +1041,24 @@
       <c r="G6" s="9">
         <v>0.2</v>
       </c>
-      <c r="H6" s="25">
-        <v>1</v>
-      </c>
-      <c r="I6" s="26"/>
+      <c r="H6" s="23">
+        <v>1</v>
+      </c>
+      <c r="I6" s="24"/>
       <c r="J6" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="M6" s="34"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -975,31 +1068,35 @@
       <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="18" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="L7" s="17"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="8">
@@ -1020,18 +1117,22 @@
       <c r="G8" s="9">
         <v>1</v>
       </c>
-      <c r="H8" s="25">
-        <v>1</v>
-      </c>
-      <c r="I8" s="26"/>
+      <c r="H8" s="23">
+        <v>1</v>
+      </c>
+      <c r="I8" s="24"/>
       <c r="J8" s="9">
         <v>1</v>
       </c>
       <c r="K8" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="9"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1044,28 +1145,32 @@
       <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="20" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="L9" s="19"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="8">
@@ -1086,138 +1191,149 @@
       <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="25">
-        <v>1</v>
-      </c>
-      <c r="I10" s="26"/>
+      <c r="H10" s="23">
+        <v>1</v>
+      </c>
+      <c r="I10" s="24"/>
       <c r="J10" s="9">
         <v>1</v>
       </c>
       <c r="K10" s="9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H10:I10"/>
@@ -1227,13 +1343,92 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4 E4">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:E6">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:E8">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:E10">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:G4">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1245,7 +1440,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="F6:G6">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1257,7 +1452,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
+  <conditionalFormatting sqref="F8:G8">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1269,7 +1464,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 C4">
+  <conditionalFormatting sqref="F10:G10">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1281,7 +1488,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:E6">
+  <conditionalFormatting sqref="H6">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1293,7 +1500,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:E8">
+  <conditionalFormatting sqref="H8">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1305,7 +1512,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:E10">
+  <conditionalFormatting sqref="H10">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1317,7 +1524,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:G4">
+  <conditionalFormatting sqref="J4:K4">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1329,7 +1536,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G6">
+  <conditionalFormatting sqref="J6:K6">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1341,7 +1548,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:G8">
+  <conditionalFormatting sqref="J8:K8">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1353,7 +1560,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:G10">
+  <conditionalFormatting sqref="J10:K10">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1365,7 +1572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="D4">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1377,7 +1584,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
+  <conditionalFormatting sqref="L4:M4">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1389,7 +1596,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="L6:M6">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1401,7 +1608,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="L8:M8">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1413,7 +1620,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:K4">
+  <conditionalFormatting sqref="L10:M10">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1425,7 +1632,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:K6">
+  <conditionalFormatting sqref="N4:O4">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1437,7 +1644,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:K8">
+  <conditionalFormatting sqref="N6:O6">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1449,7 +1656,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:K10">
+  <conditionalFormatting sqref="N8:O8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1461,7 +1668,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="N10:O10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1486,7 +1693,7 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\BSD\Project\doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCHULE\5BHIFS\BSD\BSD_Project-master\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0B06A0-C571-420A-99F1-A1AA2FE2A0F4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -213,6 +212,9 @@
   </si>
   <si>
     <t>Zieldefinition für die Web Applikation bis zum Zielende</t>
+  </si>
+  <si>
+    <t>Implementierung der Owns…- und BelongsTo-Klassen</t>
   </si>
 </sst>
 </file>
@@ -460,41 +462,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -502,6 +471,39 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -820,50 +822,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
-    <col min="2" max="15" width="39.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2" max="15" width="39.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="29" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="29" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="29" t="s">
+      <c r="M1" s="26"/>
+      <c r="N1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="30"/>
-    </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -883,10 +885,10 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="27"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
@@ -906,7 +908,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -928,10 +930,10 @@
       <c r="G3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="19" t="s">
         <v>48</v>
       </c>
@@ -939,11 +941,11 @@
         <v>49</v>
       </c>
       <c r="L3" s="19"/>
-      <c r="M3" s="33"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="19"/>
       <c r="O3" s="17"/>
     </row>
-    <row r="4" spans="1:15" s="10" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -965,10 +967,10 @@
       <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="23">
-        <v>1</v>
-      </c>
-      <c r="I4" s="24"/>
+      <c r="H4" s="30">
+        <v>1</v>
+      </c>
+      <c r="I4" s="31"/>
       <c r="J4" s="9">
         <v>1</v>
       </c>
@@ -976,11 +978,11 @@
         <v>0.6</v>
       </c>
       <c r="L4" s="9"/>
-      <c r="M4" s="34"/>
+      <c r="M4" s="23"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:15" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -1002,24 +1004,24 @@
       <c r="G5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="21" t="s">
         <v>60</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="35"/>
+      <c r="M5" s="24"/>
       <c r="N5" s="19"/>
-      <c r="O5" s="31"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
@@ -1041,10 +1043,10 @@
       <c r="G6" s="9">
         <v>0.2</v>
       </c>
-      <c r="H6" s="23">
-        <v>1</v>
-      </c>
-      <c r="I6" s="24"/>
+      <c r="H6" s="30">
+        <v>1</v>
+      </c>
+      <c r="I6" s="31"/>
       <c r="J6" s="9">
         <v>1</v>
       </c>
@@ -1054,11 +1056,11 @@
       <c r="L6" s="9">
         <v>0.1</v>
       </c>
-      <c r="M6" s="34"/>
+      <c r="M6" s="23"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:15" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -1080,10 +1082,10 @@
       <c r="G7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="17" t="s">
         <v>51</v>
       </c>
@@ -1091,11 +1093,11 @@
         <v>52</v>
       </c>
       <c r="L7" s="17"/>
-      <c r="M7" s="33"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>3</v>
       </c>
@@ -1117,10 +1119,10 @@
       <c r="G8" s="9">
         <v>1</v>
       </c>
-      <c r="H8" s="23">
-        <v>1</v>
-      </c>
-      <c r="I8" s="24"/>
+      <c r="H8" s="30">
+        <v>1</v>
+      </c>
+      <c r="I8" s="31"/>
       <c r="J8" s="9">
         <v>1</v>
       </c>
@@ -1128,11 +1130,11 @@
         <v>1</v>
       </c>
       <c r="L8" s="9"/>
-      <c r="M8" s="34"/>
+      <c r="M8" s="23"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" spans="1:15" ht="73.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="73.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1154,22 +1156,24 @@
       <c r="G9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="22"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="19" t="s">
         <v>45</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="33"/>
+      <c r="L9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="22"/>
       <c r="N9" s="19"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
@@ -1191,134 +1195,136 @@
       <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="23">
-        <v>1</v>
-      </c>
-      <c r="I10" s="24"/>
+      <c r="H10" s="30">
+        <v>1</v>
+      </c>
+      <c r="I10" s="31"/>
       <c r="J10" s="9">
         <v>1</v>
       </c>
       <c r="K10" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="M10" s="23"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1327,13 +1333,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H10:I10"/>
@@ -1343,6 +1342,13 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8">
     <cfRule type="colorScale" priority="29">
@@ -1380,7 +1386,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 E4">
+  <conditionalFormatting sqref="E4 C4">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1693,7 +1699,7 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doku/Protocol.xlsx
+++ b/doku/Protocol.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Pascal Lagger</t>
   </si>
@@ -214,7 +214,10 @@
     <t>Zieldefinition für die Web Applikation bis zum Zielende</t>
   </si>
   <si>
-    <t>Implementierung der Owns…- und BelongsTo-Klassen</t>
+    <t>User-Zwischenklassen BelongsTo, OwnsWord und OwnsPhrase fertiggestellt</t>
+  </si>
+  <si>
+    <t>Implementierung der restlichen Zwischenklassen von Word, Unit und Phrase</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -472,6 +475,33 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -479,30 +509,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -822,9 +828,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L7" sqref="L7"/>
+      <selection pane="topRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,34 +842,34 @@
   <sheetData>
     <row r="1" spans="1:15" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="25" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="25" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="36"/>
+      <c r="L1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="25" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="27"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -885,10 +891,10 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
@@ -930,10 +936,10 @@
       <c r="G3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="32"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="19" t="s">
         <v>48</v>
       </c>
@@ -967,10 +973,10 @@
       <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="30">
-        <v>1</v>
-      </c>
-      <c r="I4" s="31"/>
+      <c r="H4" s="28">
+        <v>1</v>
+      </c>
+      <c r="I4" s="29"/>
       <c r="J4" s="9">
         <v>1</v>
       </c>
@@ -1004,10 +1010,10 @@
       <c r="G5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="35"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="19" t="s">
         <v>47</v>
       </c>
@@ -1043,10 +1049,10 @@
       <c r="G6" s="9">
         <v>0.2</v>
       </c>
-      <c r="H6" s="30">
-        <v>1</v>
-      </c>
-      <c r="I6" s="31"/>
+      <c r="H6" s="28">
+        <v>1</v>
+      </c>
+      <c r="I6" s="29"/>
       <c r="J6" s="9">
         <v>1</v>
       </c>
@@ -1082,10 +1088,10 @@
       <c r="G7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="29"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="17" t="s">
         <v>51</v>
       </c>
@@ -1119,10 +1125,10 @@
       <c r="G8" s="9">
         <v>1</v>
       </c>
-      <c r="H8" s="30">
-        <v>1</v>
-      </c>
-      <c r="I8" s="31"/>
+      <c r="H8" s="28">
+        <v>1</v>
+      </c>
+      <c r="I8" s="29"/>
       <c r="J8" s="9">
         <v>1</v>
       </c>
@@ -1156,20 +1162,22 @@
       <c r="G9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="29"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="19" t="s">
         <v>45</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="22"/>
+      <c r="M9" s="25" t="s">
+        <v>63</v>
+      </c>
       <c r="N9" s="19"/>
       <c r="O9" s="17"/>
     </row>
@@ -1195,10 +1203,10 @@
       <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="30">
-        <v>1</v>
-      </c>
-      <c r="I10" s="31"/>
+      <c r="H10" s="28">
+        <v>1</v>
+      </c>
+      <c r="I10" s="29"/>
       <c r="J10" s="9">
         <v>1</v>
       </c>
@@ -1206,9 +1214,11 @@
         <v>1</v>
       </c>
       <c r="L10" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="M10" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="23">
+        <v>0.1</v>
+      </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
     </row>
@@ -1333,6 +1343,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H10:I10"/>
@@ -1342,13 +1359,6 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8">
     <cfRule type="colorScale" priority="29">
@@ -1386,7 +1396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 C4">
+  <conditionalFormatting sqref="C4 E4">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="num" val="0"/>
